--- a/Primevideo_primeiro.xlsx
+++ b/Primevideo_primeiro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Drumond\Documents\Insper 2o semestre\CDados\Projeto 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41BC6DF-BCBC-4287-8534-C4078377C9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94379F-B9B3-42EB-9063-C06FF7420E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2202,13 +2202,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A300" sqref="A300"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="255.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2222,15 +2222,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2238,31 +2238,31 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>286</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2270,23 +2270,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2294,39 +2294,39 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2342,15 +2342,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2358,39 +2358,39 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2398,15 +2398,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2414,31 +2414,31 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2446,55 +2446,55 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2526,63 +2526,63 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2614,111 +2614,111 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2734,15 +2734,15 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2758,31 +2758,31 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2790,23 +2790,23 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -2822,47 +2822,47 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>267</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2942,31 +2942,31 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>252</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2982,23 +2982,23 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -3054,15 +3054,15 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -3118,15 +3118,15 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -3150,15 +3150,15 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>269</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3174,15 +3174,15 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3190,15 +3190,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3230,15 +3230,15 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3246,15 +3246,15 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3270,15 +3270,15 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3318,15 +3318,15 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3334,15 +3334,15 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3430,15 +3430,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3486,15 +3486,15 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3518,15 +3518,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3534,15 +3534,15 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -3574,23 +3574,23 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3614,15 +3614,15 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3630,15 +3630,15 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3646,31 +3646,31 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3686,15 +3686,15 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3710,15 +3710,15 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3726,23 +3726,23 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -3806,15 +3806,15 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -3854,15 +3854,15 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>4</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -3894,23 +3894,23 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>291</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -3950,23 +3950,23 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -3974,15 +3974,15 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -4038,23 +4038,23 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -4110,15 +4110,15 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>5</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -4142,15 +4142,15 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>57</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -4182,15 +4182,15 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -4254,15 +4254,15 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="B256">
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>256</v>
+      <c r="A257" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -4302,15 +4302,15 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>29</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -4334,15 +4334,15 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>7</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -4398,15 +4398,15 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -4414,15 +4414,15 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="B276">
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" s="2" t="s">
-        <v>276</v>
+      <c r="A277" t="s">
+        <v>76</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>86</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -4454,15 +4454,15 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>144</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -4470,23 +4470,23 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>68</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>208</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -4502,15 +4502,15 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>69</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>109</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -4550,23 +4550,23 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>56</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -4574,15 +4574,15 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>128</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>162</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -4598,26 +4598,29 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" s="3" t="s">
-        <v>299</v>
+      <c r="A300" t="s">
+        <v>34</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B305">
+    <sortCondition descending="1" ref="B1:B305"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="A277" r:id="rId1" location="cinderellamovie%20@primevideo" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A257" r:id="rId1" location="cinderellamovie%20@primevideo" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
@@ -4628,8 +4631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4663,31 +4666,31 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>309</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>310</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -4695,23 +4698,23 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -4719,7 +4722,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -4727,7 +4730,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -4735,23 +4738,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -4759,47 +4762,47 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -4807,7 +4810,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -4815,31 +4818,31 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -4847,7 +4850,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -4855,47 +4858,47 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="B30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="B32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -4903,23 +4906,23 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="B34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="B35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -4927,15 +4930,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="B37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
@@ -4943,7 +4946,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -4951,7 +4954,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
@@ -4959,7 +4962,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -4967,7 +4970,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -4975,7 +4978,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -4983,7 +4986,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -4991,7 +4994,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -4999,7 +5002,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
@@ -5007,15 +5010,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="B47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -5023,7 +5026,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -5031,31 +5034,31 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="B50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="B51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="B52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -5063,7 +5066,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
@@ -5071,23 +5074,23 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="B55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="B56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -5095,15 +5098,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="B58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -5111,7 +5114,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -5119,7 +5122,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -5127,31 +5130,31 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="B62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>362</v>
+        <v>440</v>
       </c>
       <c r="B63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>363</v>
+        <v>441</v>
       </c>
       <c r="B64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>364</v>
+        <v>443</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -5159,31 +5162,31 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="B66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>447</v>
       </c>
       <c r="B67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>367</v>
+        <v>454</v>
       </c>
       <c r="B68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -5191,7 +5194,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>369</v>
+        <v>457</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
@@ -5199,15 +5202,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>370</v>
+        <v>461</v>
       </c>
       <c r="B71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>371</v>
+        <v>462</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
@@ -5215,31 +5218,31 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
       <c r="B73" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>472</v>
       </c>
       <c r="B74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>374</v>
+        <v>474</v>
       </c>
       <c r="B75" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>375</v>
+        <v>478</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
@@ -5247,7 +5250,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>376</v>
+        <v>481</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
@@ -5255,7 +5258,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>377</v>
+        <v>483</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
@@ -5263,15 +5266,15 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>378</v>
+        <v>486</v>
       </c>
       <c r="B79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>379</v>
+        <v>488</v>
       </c>
       <c r="B80" s="3">
         <v>1</v>
@@ -5279,7 +5282,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>380</v>
+        <v>489</v>
       </c>
       <c r="B81" s="3">
         <v>1</v>
@@ -5287,39 +5290,39 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>381</v>
+        <v>497</v>
       </c>
       <c r="B82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>382</v>
-      </c>
-      <c r="B83" s="3">
-        <v>1</v>
+        <v>303</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>383</v>
-      </c>
-      <c r="B84" s="3">
+        <v>304</v>
+      </c>
+      <c r="B84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>384</v>
-      </c>
-      <c r="B85" s="3">
+        <v>305</v>
+      </c>
+      <c r="B85">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>385</v>
+        <v>307</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
@@ -5327,15 +5330,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="B87" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>387</v>
+        <v>312</v>
       </c>
       <c r="B88" s="3">
         <v>0</v>
@@ -5343,31 +5346,31 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>388</v>
+        <v>313</v>
       </c>
       <c r="B89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="B90" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>390</v>
+        <v>316</v>
       </c>
       <c r="B91" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="B92" s="3">
         <v>0</v>
@@ -5375,7 +5378,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>392</v>
+        <v>318</v>
       </c>
       <c r="B93" s="3">
         <v>0</v>
@@ -5383,7 +5386,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="B94" s="3">
         <v>0</v>
@@ -5391,15 +5394,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="B95" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="B96" s="3">
         <v>0</v>
@@ -5407,15 +5410,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>396</v>
+        <v>324</v>
       </c>
       <c r="B97" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>397</v>
+        <v>327</v>
       </c>
       <c r="B98" s="3">
         <v>0</v>
@@ -5423,47 +5426,47 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>398</v>
+        <v>328</v>
       </c>
       <c r="B99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="B100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="B101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>401</v>
+        <v>331</v>
       </c>
       <c r="B102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="B103" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>403</v>
+        <v>334</v>
       </c>
       <c r="B104" s="3">
         <v>0</v>
@@ -5471,15 +5474,15 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="B105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
@@ -5487,15 +5490,15 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="B107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -5503,15 +5506,15 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="B109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="B110" s="3">
         <v>0</v>
@@ -5519,7 +5522,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
@@ -5527,7 +5530,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
@@ -5535,7 +5538,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
@@ -5543,7 +5546,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="B114" s="3">
         <v>0</v>
@@ -5551,7 +5554,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
@@ -5559,15 +5562,15 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="B116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="B117" s="3">
         <v>0</v>
@@ -5575,7 +5578,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
@@ -5583,15 +5586,15 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="B119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="B120" s="3">
         <v>0</v>
@@ -5599,7 +5602,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
@@ -5607,7 +5610,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -5615,7 +5618,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="B123" s="3">
         <v>0</v>
@@ -5623,23 +5626,23 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="B124" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="B125" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="B126" s="3">
         <v>0</v>
@@ -5647,7 +5650,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="B127" s="3">
         <v>0</v>
@@ -5655,7 +5658,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="B128" s="3">
         <v>0</v>
@@ -5663,15 +5666,15 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="B129" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
       <c r="B130" s="3">
         <v>0</v>
@@ -5679,23 +5682,23 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
       <c r="B131" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="B132" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="B133" s="3">
         <v>0</v>
@@ -5703,7 +5706,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="B134" s="3">
         <v>0</v>
@@ -5711,7 +5714,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="B135" s="3">
         <v>0</v>
@@ -5719,7 +5722,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="B136" s="3">
         <v>0</v>
@@ -5727,7 +5730,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="B137" s="3">
         <v>0</v>
@@ -5735,7 +5738,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="B138" s="3">
         <v>0</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="B139" s="3">
         <v>0</v>
@@ -5751,7 +5754,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="B140" s="3">
         <v>0</v>
@@ -5759,23 +5762,23 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="B141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="B142" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="B143" s="3">
         <v>0</v>
@@ -5783,15 +5786,15 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="B144" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="B145" s="3">
         <v>0</v>
@@ -5799,15 +5802,15 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="B146" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="B147" s="3">
         <v>0</v>
@@ -5815,15 +5818,15 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="B148" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="B149" s="3">
         <v>0</v>
@@ -5831,7 +5834,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="B150" s="3">
         <v>0</v>
@@ -5839,7 +5842,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B151" s="3">
         <v>0</v>
@@ -5847,7 +5850,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="B152" s="3">
         <v>0</v>
@@ -5855,7 +5858,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="B153" s="3">
         <v>0</v>
@@ -5863,7 +5866,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="B154" s="3">
         <v>0</v>
@@ -5871,15 +5874,15 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="B155" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="B156" s="3">
         <v>0</v>
@@ -5887,23 +5890,23 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="B157" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="B158" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="B159" s="3">
         <v>0</v>
@@ -5911,7 +5914,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B160" s="3">
         <v>0</v>
@@ -5919,7 +5922,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="B161" s="3">
         <v>0</v>
@@ -5927,23 +5930,23 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="B162" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="B163" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B164" s="3">
         <v>0</v>
@@ -5951,7 +5954,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B165" s="3">
         <v>0</v>
@@ -5959,7 +5962,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B166" s="3">
         <v>0</v>
@@ -5967,7 +5970,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B167" s="3">
         <v>0</v>
@@ -5975,7 +5978,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B168" s="3">
         <v>0</v>
@@ -5983,7 +5986,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B169" s="3">
         <v>0</v>
@@ -5991,7 +5994,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B170" s="3">
         <v>0</v>
@@ -5999,15 +6002,15 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B171" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B172" s="3">
         <v>0</v>
@@ -6015,15 +6018,15 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B173" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B174" s="3">
         <v>0</v>
@@ -6031,15 +6034,15 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B175" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B176" s="3">
         <v>0</v>
@@ -6047,7 +6050,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B177" s="3">
         <v>0</v>
@@ -6055,7 +6058,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B178" s="3">
         <v>0</v>
@@ -6063,15 +6066,15 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B179" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B180" s="3">
         <v>0</v>
@@ -6079,7 +6082,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B181" s="3">
         <v>0</v>
@@ -6087,15 +6090,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B182" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B183" s="3">
         <v>0</v>
@@ -6103,15 +6106,15 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B184" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B185" s="3">
         <v>0</v>
@@ -6119,7 +6122,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B186" s="3">
         <v>0</v>
@@ -6127,15 +6130,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B187" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B188" s="3">
         <v>0</v>
@@ -6143,23 +6146,23 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B189" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B190" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B191" s="3">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -6175,7 +6178,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B193" s="3">
         <v>0</v>
@@ -6183,7 +6186,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B194" s="3">
         <v>0</v>
@@ -6191,7 +6194,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B195" s="3">
         <v>0</v>
@@ -6199,7 +6202,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B196" s="3">
         <v>0</v>
@@ -6207,7 +6210,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B197" s="3">
         <v>0</v>
@@ -6215,10 +6218,10 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B198" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -6246,6 +6249,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B202">
+    <sortCondition descending="1" ref="B1:B202"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>